--- a/MultiControl/bin/Debug/log/SM-J700F/20161103/3300a396c025c2fb.xlsx
+++ b/MultiControl/bin/Debug/log/SM-J700F/20161103/3300a396c025c2fb.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="51">
   <si>
     <t>PQAA SW</t>
   </si>
@@ -569,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ2"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -884,6 +884,137 @@
         <v>50</v>
       </c>
     </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="4">
+        <v>42677.097627314812</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ3" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MultiControl/bin/Debug/log/SM-J700F/20161103/3300a396c025c2fb.xlsx
+++ b/MultiControl/bin/Debug/log/SM-J700F/20161103/3300a396c025c2fb.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="51">
   <si>
     <t>PQAA SW</t>
   </si>
@@ -569,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1015,6 +1015,1447 @@
         <v>50</v>
       </c>
     </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="4">
+        <v>42677.223923611113</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ4" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="4">
+        <v>42677.233067129629</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ5" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="4">
+        <v>42677.234872685185</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ6" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="4">
+        <v>42677.235277777778</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ7" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="4">
+        <v>42677.246215277781</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ8" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="4">
+        <v>42677.246701388889</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ9" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="4">
+        <v>42677.247118055559</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ10" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="4">
+        <v>42677.248043981483</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ11" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="4">
+        <v>42677.273831018516</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ12" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="4">
+        <v>42677.289351851854</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ13" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="4">
+        <v>42677.297407407408</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ14" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
